--- a/data/trans_bre/P17_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.253286802930359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.380757374220824</v>
+        <v>6.380757374220813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.305535108588863</v>
@@ -649,7 +649,7 @@
         <v>0.1068139061199725</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0809102170205423</v>
+        <v>0.08091021702054214</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.821209942547084</v>
+        <v>8.669250898156438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.040125215413223</v>
+        <v>3.095654914011129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5195732176392399</v>
+        <v>-0.4221545973879446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.488962250519798</v>
+        <v>0.7391821004436847</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1444897278709399</v>
+        <v>0.1431273973080341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04121951399655335</v>
+        <v>0.04336880864300946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.00735563635502477</v>
+        <v>-0.005168101329042133</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.006411251336083678</v>
+        <v>0.008381913076465641</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.00866272119469</v>
+        <v>25.52741868693204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.23561728103564</v>
+        <v>18.11865939714748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.08545295943303</v>
+        <v>15.28952247308993</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.60025437463505</v>
+        <v>13.0217168085621</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4955576928043897</v>
+        <v>0.500785359146513</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2878194357311095</v>
+        <v>0.2896884392571544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.237986516921496</v>
+        <v>0.2424395087246335</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1702892917498567</v>
+        <v>0.1729953427032733</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.902265214920767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.33798372341736</v>
+        <v>16.33798372341738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2803159978839624</v>
@@ -749,7 +749,7 @@
         <v>0.132018181918692</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2889252837627028</v>
+        <v>0.2889252837627033</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10.06510862567451</v>
+        <v>9.8190503418659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.363080991686864</v>
+        <v>3.092602006562555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.936923086352762</v>
+        <v>2.142734467668292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.4711067638847</v>
+        <v>9.694154358700786</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1628524824169442</v>
+        <v>0.1600643899479481</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04457691068097366</v>
+        <v>0.04251425629125272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03060271973361521</v>
+        <v>0.03571051350402612</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1686936981060617</v>
+        <v>0.1599593694032955</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>22.04876073612994</v>
+        <v>21.4512992660908</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.56981067120248</v>
+        <v>13.7434874247595</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.86377019696718</v>
+        <v>13.61677659586311</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.03812899620487</v>
+        <v>22.62663674655294</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4114546953680092</v>
+        <v>0.3964144523344862</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2152881159448203</v>
+        <v>0.202204764089551</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2461594271228525</v>
+        <v>0.2422871102678462</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4410102412602909</v>
+        <v>0.434660634612743</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.692233196909386</v>
+        <v>8.295642469763409</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.981963073731832</v>
+        <v>7.776345023885973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.277567594595219</v>
+        <v>1.216288595618998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.132136205191978</v>
+        <v>4.047256599304689</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.122643484160211</v>
+        <v>0.1186102192140846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0966850812910878</v>
+        <v>0.09576713321471902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01718146860058502</v>
+        <v>0.01501143028950937</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0545049942983733</v>
+        <v>0.05291095621528137</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.63067687490996</v>
+        <v>21.87202956339152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.46546848197456</v>
+        <v>18.6012696435445</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.3928026775107</v>
+        <v>13.34858606916894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.02079026034703</v>
+        <v>15.9500082058578</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.339643006645439</v>
+        <v>0.3489394376357702</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2431828810781219</v>
+        <v>0.2488893763162616</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1815680588365677</v>
+        <v>0.18192231324397</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2278527563407644</v>
+        <v>0.2273928850578285</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.389283171774825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.059173206744475</v>
+        <v>8.059173206744507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2892074309991385</v>
@@ -949,7 +949,7 @@
         <v>0.0281418195573292</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1177307068899425</v>
+        <v>0.117730706889943</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.80249051930115</v>
+        <v>10.60611016940982</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.067387175642967</v>
+        <v>9.124509662963352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.653669772638176</v>
+        <v>-2.606710673981925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.03858182013807058</v>
+        <v>0.1038619573682043</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1657829485833014</v>
+        <v>0.1636899643547558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1249986219855923</v>
+        <v>0.1271936853834563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03056421455793639</v>
+        <v>-0.02980002764169783</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.001770962811778091</v>
+        <v>0.002993087436142958</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.09819748205158</v>
+        <v>24.15954818354325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.23812408685771</v>
+        <v>21.47075925838773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.250407798960054</v>
+        <v>7.259746326123465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.49194492035478</v>
+        <v>16.39823164552524</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4281834937580774</v>
+        <v>0.4318240607196302</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.346708813066631</v>
+        <v>0.3300463591111842</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08753742894999265</v>
+        <v>0.09046196236400557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2677754757606167</v>
+        <v>0.2605675147773495</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>13.10556466430143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.064379820603671</v>
+        <v>6.064379820603666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1668341948394965</v>
@@ -1049,7 +1049,7 @@
         <v>0.169166988731571</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1743891641328306</v>
+        <v>0.1743891641328305</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.708722175128322</v>
+        <v>3.002487990536174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.23984170150749</v>
+        <v>4.591098687100131</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.250320027751394</v>
+        <v>6.252012571138554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.397300469620306</v>
+        <v>-1.794903632523856</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03670566344776081</v>
+        <v>0.03980941898444568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06723519101614008</v>
+        <v>0.05819673832593109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07667599614530479</v>
+        <v>0.07593619991312164</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.03820224207097229</v>
+        <v>-0.04420086959870823</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.80365307051514</v>
+        <v>19.34578368091717</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.19124258342756</v>
+        <v>19.84529066477692</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.04547698902401</v>
+        <v>19.26883329103867</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.05159815454437</v>
+        <v>13.57031244482214</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3228644047825053</v>
+        <v>0.3033694867594173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.288974289866761</v>
+        <v>0.289094982116839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2768934241206659</v>
+        <v>0.2663206078110167</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4261020839654421</v>
+        <v>0.453598510030144</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.76775807143378</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.030947022551405</v>
+        <v>9.030947022551361</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.314430825169311</v>
@@ -1149,7 +1149,7 @@
         <v>0.04564877707079257</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1170622359828061</v>
+        <v>0.1170622359828055</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.22439063221977</v>
+        <v>12.05250594437578</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.977190060935208</v>
+        <v>5.582339244830942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.638374931960245</v>
+        <v>-2.274283244375199</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.777083544212188</v>
+        <v>3.354352572163441</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1847887860465002</v>
+        <v>0.1759092402298095</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06027532867380255</v>
+        <v>0.06955274773123608</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03009570785550482</v>
+        <v>-0.02621067128284141</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03380348607476571</v>
+        <v>0.03996953284626366</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.57028834598657</v>
+        <v>26.82520864287766</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.35176903520623</v>
+        <v>18.6206662358955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.625718702406166</v>
+        <v>10.31141961686616</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15.12502970064281</v>
+        <v>15.40072285172536</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.468880989299332</v>
+        <v>0.4627708876547155</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2545371069925021</v>
+        <v>0.2596639591225798</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.12360590483815</v>
+        <v>0.1314456089909326</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2075392698755264</v>
+        <v>0.2115120907592126</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.17742525953734</v>
+        <v>7.848177597231184</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.056859618307073</v>
+        <v>7.337413040393119</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.812360814237944</v>
+        <v>5.439385943973813</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.515666178008202</v>
+        <v>4.981178342131181</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.121372250059758</v>
+        <v>0.1181197081900595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09655571002724642</v>
+        <v>0.09757155327187375</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08636110517387721</v>
+        <v>0.0792122755677772</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.06881039822551831</v>
+        <v>0.07431700833411348</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.5444383069232</v>
+        <v>18.64123536265433</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.97181594266659</v>
+        <v>16.48796904300663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.59903593692336</v>
+        <v>16.15697643650926</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.08919124962195</v>
+        <v>15.18046332307783</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3081350147640988</v>
+        <v>0.3039721323658262</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2325672508079973</v>
+        <v>0.2366964927392948</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2707912117312231</v>
+        <v>0.2623202536867935</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2533508610445331</v>
+        <v>0.2521323543081291</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.729862970257107</v>
+        <v>4.525808050580588</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.251850354732737</v>
+        <v>4.781566591411916</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.92844403241913</v>
+        <v>1.828128793420094</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.015983121702058</v>
+        <v>2.036554385158078</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06992228088187354</v>
+        <v>0.06688829785073297</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06261119956394677</v>
+        <v>0.07151975517820908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02268996589176778</v>
+        <v>0.02119630636026584</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02571662154586102</v>
+        <v>0.02561464464411014</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.67354592892426</v>
+        <v>13.96021782988752</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.84700133171732</v>
+        <v>13.63096072279417</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.933492910928669</v>
+        <v>8.965662136078985</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.62358491878303</v>
+        <v>10.9336358297986</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2185470850347329</v>
+        <v>0.2238330108018743</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2223066292836998</v>
+        <v>0.2205781302404977</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1108314920502821</v>
+        <v>0.1100703140393672</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1448726944560419</v>
+        <v>0.148225993765709</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.09688791319488319</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1348512049711981</v>
+        <v>0.134851204971198</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.83185351922296</v>
+        <v>12.00893050588915</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.128715173634266</v>
+        <v>9.1500090701437</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.235228871918793</v>
+        <v>5.144152546042491</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.003816727077854</v>
+        <v>6.811479911200055</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1840231646598586</v>
+        <v>0.189457526497872</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1278236244308829</v>
+        <v>0.1262667302136971</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06948440584366927</v>
+        <v>0.06901172585850347</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1013300605933503</v>
+        <v>0.09841099909519256</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.3438199574887</v>
+        <v>16.43145729862468</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.21439891808032</v>
+        <v>13.26204738713538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.11110713990681</v>
+        <v>9.117826219308219</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.32596413486395</v>
+        <v>11.34508364740419</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2674290957304122</v>
+        <v>0.2684266740968472</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.189800381080309</v>
+        <v>0.1896003691713641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1248572856751047</v>
+        <v>0.1253012082656544</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1725067350674477</v>
+        <v>0.1716193375389144</v>
       </c>
     </row>
     <row r="31">
